--- a/03_data/custom_communities/2022 11 09 10h46m56s/filtered_buildings_incl_roofs.xlsx
+++ b/03_data/custom_communities/2022 11 09 10h46m56s/filtered_buildings_incl_roofs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fimrc.sharepoint.com/teams/paper-AgentBasedModeling/Freigegebene Dokumente/General/04 ABM/03_data/custom_communities/2022 11 09 10h46m56s/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="149" documentId="11_4799FF01876C1A0F62355476585DCE3A87473EE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A720A7CA-3254-43CE-ADF4-324EC593DD42}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="11_4799FF01876C1A0F62355476585DCE3A87473EE9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F95FF888-9BEF-4795-B927-4F228E81C1E8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -89,21 +89,12 @@
     <t>LOAD_FLEXIBILITY</t>
   </si>
   <si>
-    <t>Erlenweg</t>
-  </si>
-  <si>
     <t>85049</t>
   </si>
   <si>
     <t>Ingolstadt</t>
   </si>
   <si>
-    <t>Altenhofstr.</t>
-  </si>
-  <si>
-    <t>Immelstr.</t>
-  </si>
-  <si>
     <t>Two_full-time_working_persons,_two_children</t>
   </si>
   <si>
@@ -132,6 +123,15 @@
   </si>
   <si>
     <t>consumer</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -504,7 +504,7 @@
   <dimension ref="A1:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -588,28 +588,28 @@
         <v>243563.3825034794</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
       </c>
       <c r="K2">
         <v>119.87465000114101</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -638,28 +638,28 @@
         <v>114093.5919877971</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
-      </c>
-      <c r="J3" t="s">
-        <v>20</v>
       </c>
       <c r="K3">
         <v>102.853650001156</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O3">
         <v>100</v>
@@ -694,28 +694,28 @@
         <v>65809.85106391336</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G4">
         <v>45</v>
       </c>
       <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" t="s">
         <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
       </c>
       <c r="K4">
         <v>102.200350001131</v>
       </c>
       <c r="L4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" t="s">
         <v>28</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
       </c>
       <c r="O4">
         <v>50</v>
@@ -744,28 +744,28 @@
         <v>52348.574244086223</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G5">
         <v>43</v>
       </c>
       <c r="I5" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" t="s">
         <v>19</v>
-      </c>
-      <c r="J5" t="s">
-        <v>20</v>
       </c>
       <c r="K5">
         <v>88.620699997826705</v>
       </c>
       <c r="L5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S5">
         <v>0.1</v>
@@ -788,28 +788,28 @@
         <v>85704.050825589162</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G6">
         <v>4</v>
       </c>
       <c r="I6" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" t="s">
-        <v>20</v>
       </c>
       <c r="K6">
         <v>146.65539999977</v>
       </c>
       <c r="L6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O6">
         <v>50</v>
@@ -844,28 +844,28 @@
         <v>76112.009526170805</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G7">
         <v>6</v>
       </c>
       <c r="I7" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" t="s">
         <v>19</v>
-      </c>
-      <c r="J7" t="s">
-        <v>20</v>
       </c>
       <c r="K7">
         <v>116.09100000072399</v>
       </c>
       <c r="L7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O7">
         <v>100</v>
@@ -900,28 +900,28 @@
         <v>143389.56409212621</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="G8">
         <v>8</v>
       </c>
       <c r="I8" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" t="s">
         <v>19</v>
-      </c>
-      <c r="J8" t="s">
-        <v>20</v>
       </c>
       <c r="K8">
         <v>123.460549996133</v>
       </c>
       <c r="L8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O8">
         <v>50</v>
@@ -950,28 +950,28 @@
         <v>67953.571591544125</v>
       </c>
       <c r="F9" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G9">
         <v>37</v>
       </c>
       <c r="I9" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" t="s">
         <v>19</v>
-      </c>
-      <c r="J9" t="s">
-        <v>20</v>
       </c>
       <c r="K9">
         <v>84.951000002079297</v>
       </c>
       <c r="L9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S9">
         <v>0.1</v>
@@ -994,28 +994,28 @@
         <v>53117.475312649251</v>
       </c>
       <c r="F10" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G10">
         <v>41</v>
       </c>
       <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
         <v>19</v>
-      </c>
-      <c r="J10" t="s">
-        <v>20</v>
       </c>
       <c r="K10">
         <v>80.235200002979994</v>
       </c>
       <c r="L10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="N10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -1044,28 +1044,28 @@
         <v>58339.704151051832</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G11">
         <v>39</v>
       </c>
       <c r="I11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" t="s">
         <v>19</v>
-      </c>
-      <c r="J11" t="s">
-        <v>20</v>
       </c>
       <c r="K11">
         <v>85.146200004427797</v>
       </c>
       <c r="L11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S11">
         <v>0.1</v>
@@ -1088,28 +1088,28 @@
         <v>200880.03571845731</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>5</v>
       </c>
       <c r="I12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" t="s">
         <v>19</v>
-      </c>
-      <c r="J12" t="s">
-        <v>20</v>
       </c>
       <c r="K12">
         <v>93.787600000262699</v>
       </c>
       <c r="L12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="O12">
         <v>100</v>
@@ -1144,28 +1144,28 @@
         <v>78308.271313081175</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G13">
         <v>7</v>
       </c>
       <c r="I13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" t="s">
         <v>19</v>
-      </c>
-      <c r="J13" t="s">
-        <v>20</v>
       </c>
       <c r="K13">
         <v>167.11484999903399</v>
       </c>
       <c r="L13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S13">
         <v>0.1</v>
@@ -1188,28 +1188,28 @@
         <v>85052.909997312498</v>
       </c>
       <c r="F14" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G14">
         <v>35</v>
       </c>
       <c r="I14" t="s">
+        <v>18</v>
+      </c>
+      <c r="J14" t="s">
         <v>19</v>
-      </c>
-      <c r="J14" t="s">
-        <v>20</v>
       </c>
       <c r="K14">
         <v>115.132149993307</v>
       </c>
       <c r="L14" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="N14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="S14">
         <v>0.1</v>
@@ -1221,6 +1221,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100A246F78728EA7F468BEE73C9CBE1861B" ma:contentTypeVersion="8" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="90a5b8a10b81e38c7b170b49c6f59e6c">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="24421885-b0cf-4b4e-a9fe-dac23dfb7b66" xmlns:ns3="64024020-88c1-488d-b0d8-4d31cd0c5c0b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="678056eadf415aba797a59507053086a" ns2:_="" ns3:_="">
     <xsd:import namespace="24421885-b0cf-4b4e-a9fe-dac23dfb7b66"/>
@@ -1397,15 +1406,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1418,6 +1418,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876C6E0E-737B-4C2B-9642-4CA448167151}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5AEDACA6-9733-44C1-B1EF-2AF697BD158C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1436,14 +1444,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{876C6E0E-737B-4C2B-9642-4CA448167151}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E8DA932-5800-4AA2-AE38-1C404522EB6E}">
   <ds:schemaRefs>
